--- a/data/trans_orig/P36$cafe-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36$cafe-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>528282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>512990</v>
+        <v>511760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>541456</v>
+        <v>541060</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9043740308036109</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8781956541043373</v>
+        <v>0.8760896208948356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9269266140841047</v>
+        <v>0.9262495911928934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>814</v>
@@ -764,19 +764,19 @@
         <v>850372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>833478</v>
+        <v>832757</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>866320</v>
+        <v>864624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9219790317526338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9036629080533575</v>
+        <v>0.902881381464268</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9392702451181164</v>
+        <v>0.9374312277759131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1334</v>
@@ -785,19 +785,19 @@
         <v>1378654</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1354650</v>
+        <v>1355971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1398103</v>
+        <v>1399604</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9151526236380509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8992188075900857</v>
+        <v>0.9000955512766234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9280630064226365</v>
+        <v>0.9290597188161791</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>38889</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27162</v>
+        <v>27676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53414</v>
+        <v>53086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06657419407411731</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0464994742447077</v>
+        <v>0.04737898777663761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09144106458858163</v>
+        <v>0.09087907543043314</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -835,19 +835,19 @@
         <v>92615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74981</v>
+        <v>75497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112517</v>
+        <v>110842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1004137245091229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08129473046042844</v>
+        <v>0.08185460064565746</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1219911985817155</v>
+        <v>0.1201759628871326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -856,19 +856,19 @@
         <v>131504</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>111814</v>
+        <v>109442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>154428</v>
+        <v>155951</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08729231396083116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07422207284980245</v>
+        <v>0.07264808749963707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1025093253514855</v>
+        <v>0.1035206963157151</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>11235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5681</v>
+        <v>5698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19358</v>
+        <v>20742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0192338485526139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009725141093674278</v>
+        <v>0.009754613577650235</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03313848475755357</v>
+        <v>0.0355093196226952</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -906,19 +906,19 @@
         <v>19208</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11645</v>
+        <v>11111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29962</v>
+        <v>28695</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02082588516684081</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01262547180020685</v>
+        <v>0.01204653868735578</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03248540897882583</v>
+        <v>0.03111163750714696</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>28</v>
@@ -927,19 +927,19 @@
         <v>30444</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20187</v>
+        <v>20782</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44029</v>
+        <v>42301</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02020856673024767</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01340047964608088</v>
+        <v>0.01379498567508013</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02922619610511663</v>
+        <v>0.02807961859880018</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>19665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12390</v>
+        <v>11942</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30375</v>
+        <v>30477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03366437133697709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02121005683904669</v>
+        <v>0.02044394321144996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05199900292759365</v>
+        <v>0.05217336034254147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -977,19 +977,19 @@
         <v>18156</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10730</v>
+        <v>10806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28704</v>
+        <v>28697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01968465300285764</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01163306289951513</v>
+        <v>0.01171583818429527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03112143433565055</v>
+        <v>0.031113701917157</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>36</v>
@@ -998,19 +998,19 @@
         <v>37821</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27162</v>
+        <v>27193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51989</v>
+        <v>53470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02510534357549359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01802991556079244</v>
+        <v>0.01805080839153856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03451044777351883</v>
+        <v>0.03549344584145136</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>15414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8475</v>
+        <v>8530</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26161</v>
+        <v>25784</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02638671863993107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01450841894979128</v>
+        <v>0.01460192077540428</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04478625821805553</v>
+        <v>0.04413936825027445</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1048,19 +1048,19 @@
         <v>10513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5140</v>
+        <v>5557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17164</v>
+        <v>18067</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0113987106861471</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005572819044042737</v>
+        <v>0.006024505597111901</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01860904486863759</v>
+        <v>0.01958843644898691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1069,19 +1069,19 @@
         <v>25927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17348</v>
+        <v>17863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>37398</v>
+        <v>39144</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01721036951044392</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01151556509511203</v>
+        <v>0.01185749877631728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02482456538079874</v>
+        <v>0.02598405273252977</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1098,19 @@
         <v>426091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>405613</v>
+        <v>405299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>447253</v>
+        <v>448048</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7294316410526362</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6943743127149368</v>
+        <v>0.6938371112530619</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7656591862205188</v>
+        <v>0.7670199855529208</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>708</v>
@@ -1119,19 +1119,19 @@
         <v>739260</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>714220</v>
+        <v>715142</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>763438</v>
+        <v>763887</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8015105254900597</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7743628802450732</v>
+        <v>0.7753617032010746</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8277250243619068</v>
+        <v>0.8282120904792838</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1126</v>
@@ -1140,19 +1140,19 @@
         <v>1165351</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1134127</v>
+        <v>1134088</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1197069</v>
+        <v>1199492</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7735616555616537</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7528352472269878</v>
+        <v>0.752809323729088</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7946161519648154</v>
+        <v>0.7962247346699138</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>976029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>956586</v>
+        <v>957008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>994182</v>
+        <v>994082</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9080881300549991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8899986963690963</v>
+        <v>0.8903912296972829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9249780379856263</v>
+        <v>0.9248848642466349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>940</v>
@@ -1194,19 +1194,19 @@
         <v>966997</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>945104</v>
+        <v>949682</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>982335</v>
+        <v>984661</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9160755856714802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8953347773008655</v>
+        <v>0.8996715757551885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9306050961517515</v>
+        <v>0.9328088992496893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1896</v>
@@ -1215,19 +1215,19 @@
         <v>1943026</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1916802</v>
+        <v>1915748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1970070</v>
+        <v>1970147</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9120458075372191</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.899736226123138</v>
+        <v>0.8992418120489999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9247400435574726</v>
+        <v>0.9247760620258465</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>76287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60008</v>
+        <v>58294</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96188</v>
+        <v>93274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07097634830344328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05583056258314561</v>
+        <v>0.05423661447337261</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08949250477322268</v>
+        <v>0.08678167445461382</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1265,19 +1265,19 @@
         <v>101506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82225</v>
+        <v>82448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123936</v>
+        <v>121060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0961609435806093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07789476438985547</v>
+        <v>0.07810621489671629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1174093638163984</v>
+        <v>0.1146846894766144</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>167</v>
@@ -1286,19 +1286,19 @@
         <v>177793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>152628</v>
+        <v>151505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>207342</v>
+        <v>205584</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08345497859737602</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07164269420652347</v>
+        <v>0.07111542578869566</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09732505444237938</v>
+        <v>0.09649979692373557</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>41534</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29912</v>
+        <v>29574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56513</v>
+        <v>56337</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0386427229000836</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0278303045489308</v>
+        <v>0.02751529780005254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05257916129067877</v>
+        <v>0.05241553480176162</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1336,19 +1336,19 @@
         <v>25365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16119</v>
+        <v>16649</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36617</v>
+        <v>37701</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02402890886060402</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01526972346626079</v>
+        <v>0.01577217470785994</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03468889846660989</v>
+        <v>0.03571525973543144</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1357,19 +1357,19 @@
         <v>66898</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52082</v>
+        <v>50855</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>85967</v>
+        <v>83953</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03140177339996243</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02444695226856223</v>
+        <v>0.02387126288559295</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04035236028457115</v>
+        <v>0.03940704119072153</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>22387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14341</v>
+        <v>14284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32774</v>
+        <v>31703</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02082837053188925</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01334242140633916</v>
+        <v>0.01328982050745398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03049278035183681</v>
+        <v>0.02949635393762906</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1407,19 +1407,19 @@
         <v>10865</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5713</v>
+        <v>5922</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19798</v>
+        <v>19809</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01029246896764497</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005411783032105038</v>
+        <v>0.005610264506418103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01875531979124074</v>
+        <v>0.01876555985367195</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1428,19 +1428,19 @@
         <v>33251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24007</v>
+        <v>23382</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46160</v>
+        <v>45645</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01560797214999925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01126867469378547</v>
+        <v>0.01097558987574055</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02166703150255516</v>
+        <v>0.02142573145701631</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>20958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13347</v>
+        <v>13689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33140</v>
+        <v>32775</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01949955077378018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01241806161164494</v>
+        <v>0.01273603122635728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03083282472648885</v>
+        <v>0.03049361450685456</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1478,19 +1478,19 @@
         <v>19270</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11731</v>
+        <v>11881</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28887</v>
+        <v>29118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01825568273058405</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01111304466785648</v>
+        <v>0.01125559535597346</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02736622912478916</v>
+        <v>0.02758427932335905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -1499,19 +1499,19 @@
         <v>40229</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29098</v>
+        <v>29229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54519</v>
+        <v>53615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01888323078631724</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01365848240322797</v>
+        <v>0.01372014266951788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02559087856063661</v>
+        <v>0.02516659898648466</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1528,19 @@
         <v>830544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>798696</v>
+        <v>798797</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>855991</v>
+        <v>856184</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7727305798457408</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7430995768119013</v>
+        <v>0.7431934256737668</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7964065288929716</v>
+        <v>0.7965855810156279</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>793</v>
@@ -1549,19 +1549,19 @@
         <v>814734</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>786957</v>
+        <v>787341</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>840664</v>
+        <v>839861</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7718298905574542</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.745516280387559</v>
+        <v>0.7458800346109197</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7963945801901493</v>
+        <v>0.7956342199677582</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1606</v>
@@ -1570,19 +1570,19 @@
         <v>1645278</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1604898</v>
+        <v>1604631</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1685961</v>
+        <v>1682588</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.772284300343746</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7533302461453842</v>
+        <v>0.7532052497991291</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7913810582642745</v>
+        <v>0.7897974582729008</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>1034845</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1013415</v>
+        <v>1015391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1049721</v>
+        <v>1050865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9249246822219034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9057715054734971</v>
+        <v>0.9075373947864278</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9382208818250412</v>
+        <v>0.9392430713269789</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>896</v>
@@ -1624,19 +1624,19 @@
         <v>907103</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>888063</v>
+        <v>888412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>923698</v>
+        <v>924183</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9136208046492761</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8944441303834466</v>
+        <v>0.894795346697684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.930335341394017</v>
+        <v>0.9308233598790008</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1913</v>
@@ -1645,19 +1645,19 @@
         <v>1941948</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1913999</v>
+        <v>1917686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1964265</v>
+        <v>1965661</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9196099136082793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.90637496231963</v>
+        <v>0.908120670729314</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9301782387199933</v>
+        <v>0.9308392679491818</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>87007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71744</v>
+        <v>69185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108841</v>
+        <v>106740</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07776502737103759</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06412374529304768</v>
+        <v>0.06183666400148783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09728046783951183</v>
+        <v>0.09540198001401444</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -1695,19 +1695,19 @@
         <v>114479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>95407</v>
+        <v>95601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>135183</v>
+        <v>138443</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1153013895227691</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09609247252183978</v>
+        <v>0.09628792238462058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1361541266626478</v>
+        <v>0.1394373910188625</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>195</v>
@@ -1716,19 +1716,19 @@
         <v>201486</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174385</v>
+        <v>176153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>230349</v>
+        <v>231978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09541358010454726</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08257984974597832</v>
+        <v>0.08341709401917094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1090818386823766</v>
+        <v>0.1098531490071676</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>44919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32541</v>
+        <v>32547</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59167</v>
+        <v>58352</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04014749779230411</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02908470712273373</v>
+        <v>0.02908993313090978</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05288278272778764</v>
+        <v>0.05215398084225046</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1766,19 +1766,19 @@
         <v>19252</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11881</v>
+        <v>12139</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30475</v>
+        <v>30937</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01938998643622507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01196639385133952</v>
+        <v>0.01222640891463378</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03069405514641123</v>
+        <v>0.03115911064627184</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -1787,19 +1787,19 @@
         <v>64170</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49503</v>
+        <v>50029</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83232</v>
+        <v>82778</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.030387893696858</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02344207981158897</v>
+        <v>0.0236911544037515</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03941470724881482</v>
+        <v>0.03919966503704778</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>19090</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11484</v>
+        <v>12161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28796</v>
+        <v>30634</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01706229454226314</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01026427698691239</v>
+        <v>0.01086964354319729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02573768237215668</v>
+        <v>0.02738027485003605</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1837,19 +1837,19 @@
         <v>17602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10699</v>
+        <v>10674</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27913</v>
+        <v>26903</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01772896921932767</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01077551968123176</v>
+        <v>0.01075093584138806</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0281132373710078</v>
+        <v>0.02709637033319036</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -1858,19 +1858,19 @@
         <v>36693</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26297</v>
+        <v>27017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50595</v>
+        <v>50638</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01737574641985076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01245288146382158</v>
+        <v>0.01279390009308144</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02395913294049744</v>
+        <v>0.02397957874319317</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>15957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9192</v>
+        <v>8727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25153</v>
+        <v>24590</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01426238395496441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008215197217094999</v>
+        <v>0.007800163429573952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02248087884900574</v>
+        <v>0.02197775580832046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1908,19 +1908,19 @@
         <v>16843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10167</v>
+        <v>10417</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25512</v>
+        <v>26213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0169644245736307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01023956252812545</v>
+        <v>0.01049144522013801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0256950627349235</v>
+        <v>0.02640169444745242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -1929,19 +1929,19 @@
         <v>32801</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>22869</v>
+        <v>23785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45474</v>
+        <v>44526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01553280824791677</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01082976165659842</v>
+        <v>0.01126354145112621</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02153422390600132</v>
+        <v>0.02108536475375294</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1958,19 @@
         <v>863400</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>834258</v>
+        <v>832511</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>890372</v>
+        <v>890473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7716911763831</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7456442701936997</v>
+        <v>0.7440825572995442</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7957975482226871</v>
+        <v>0.7958881085853418</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>765</v>
@@ -1979,19 +1979,19 @@
         <v>772267</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>745196</v>
+        <v>745082</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>795492</v>
+        <v>797881</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7778156231117243</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7505508557511062</v>
+        <v>0.7504357955636687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8012078516259056</v>
+        <v>0.8036135331789829</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1613</v>
@@ -2000,19 +2000,19 @@
         <v>1635667</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1593021</v>
+        <v>1595394</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1673575</v>
+        <v>1674310</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7745707207730647</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7543757174225512</v>
+        <v>0.7554993911627841</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7925220996898606</v>
+        <v>0.7928699448314692</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>411346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>398379</v>
+        <v>398701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>421389</v>
+        <v>421629</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9216772538364558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8926211587904347</v>
+        <v>0.8933446045746413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9441795840775803</v>
+        <v>0.9447175559307996</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>307</v>
@@ -2054,19 +2054,19 @@
         <v>309299</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>298361</v>
+        <v>297667</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>319340</v>
+        <v>319138</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9066139419885028</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8745532051084554</v>
+        <v>0.8725204450866535</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9360481650870461</v>
+        <v>0.9354563880840181</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>708</v>
@@ -2075,19 +2075,19 @@
         <v>720645</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>703666</v>
+        <v>703055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>735272</v>
+        <v>735443</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9151512430444574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8935900917088311</v>
+        <v>0.8928134454683146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9337264157016876</v>
+        <v>0.9339427476412187</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>57995</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>44240</v>
+        <v>44638</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72985</v>
+        <v>73277</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1299449940826476</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09912572863118935</v>
+        <v>0.100017417349251</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1635337105495357</v>
+        <v>0.1641864768864225</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -2125,19 +2125,19 @@
         <v>46740</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35440</v>
+        <v>34607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>60954</v>
+        <v>61696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1370034135025654</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1038808033014064</v>
+        <v>0.101439665732243</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1786690936792829</v>
+        <v>0.1808429163239724</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>100</v>
@@ -2146,19 +2146,19 @@
         <v>104735</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>87336</v>
+        <v>86093</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126098</v>
+        <v>124646</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.133002975074729</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1109081357840012</v>
+        <v>0.1093294092733596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1601321686238903</v>
+        <v>0.1582889352127941</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>17586</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10092</v>
+        <v>10332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28936</v>
+        <v>28166</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03940390276366967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02261344800807251</v>
+        <v>0.02315002553875718</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06483602017755789</v>
+        <v>0.06310897294946811</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2196,19 +2196,19 @@
         <v>6833</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3064</v>
+        <v>2698</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14562</v>
+        <v>13334</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02003004238580634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0089822391653463</v>
+        <v>0.007907818798932063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04268400658215916</v>
+        <v>0.03908598769642485</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -2217,19 +2217,19 @@
         <v>24419</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15546</v>
+        <v>15800</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36682</v>
+        <v>35741</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03101039520140085</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01974146636566236</v>
+        <v>0.02006454096458901</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04658331761212112</v>
+        <v>0.04538760759971925</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>4580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1725</v>
+        <v>1610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10120</v>
+        <v>9718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0102630323591457</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00386442980986991</v>
+        <v>0.003606500289297679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02267484855625167</v>
+        <v>0.02177501780657998</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2267,19 +2267,19 @@
         <v>5944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2011</v>
+        <v>2163</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11964</v>
+        <v>12900</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01742442074872157</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005894478557231654</v>
+        <v>0.006340037079814438</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03506932468525475</v>
+        <v>0.03781217316769195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -2288,19 +2288,19 @@
         <v>10525</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5744</v>
+        <v>5575</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18523</v>
+        <v>18761</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01336562350163841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007293853493085794</v>
+        <v>0.007079249107999076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02352244124633042</v>
+        <v>0.02382504558343671</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>6091</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2400</v>
+        <v>2657</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12385</v>
+        <v>13629</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01364785739447751</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005377061772902518</v>
+        <v>0.005953040803309714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02774918688563764</v>
+        <v>0.03053702387816441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2338,19 +2338,19 @@
         <v>5335</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2034</v>
+        <v>2020</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11723</v>
+        <v>12682</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01563668570392834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005961643130681399</v>
+        <v>0.005920507866612947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03436145632625039</v>
+        <v>0.03717447814729775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2359,19 +2359,19 @@
         <v>11426</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5708</v>
+        <v>5361</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20006</v>
+        <v>19228</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0145094949375303</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007248056773009549</v>
+        <v>0.006807818454800548</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02540631134345447</v>
+        <v>0.02441756759989454</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2388,19 @@
         <v>342903</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>324854</v>
+        <v>323662</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>360479</v>
+        <v>360734</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7683198370824896</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7278787136921498</v>
+        <v>0.7252076896852592</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8077024652983557</v>
+        <v>0.8082723150934129</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>261</v>
@@ -2409,19 +2409,19 @@
         <v>263504</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>247153</v>
+        <v>246254</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>277502</v>
+        <v>277754</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7723804913691927</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7244527289174055</v>
+        <v>0.7218174880831756</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8134111773481926</v>
+        <v>0.8141508874423202</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>596</v>
@@ -2430,19 +2430,19 @@
         <v>606406</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>583009</v>
+        <v>581851</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>628895</v>
+        <v>629399</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7700790699766291</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7403669528533925</v>
+        <v>0.7388956481472116</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7986371858568958</v>
+        <v>0.7992778812345172</v>
       </c>
     </row>
     <row r="28">
@@ -2463,19 +2463,19 @@
         <v>2950501</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2915554</v>
+        <v>2915822</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2980286</v>
+        <v>2980009</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9151390014257771</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9042994901814553</v>
+        <v>0.9043828275674406</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9243771362860139</v>
+        <v>0.9242910567521578</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2957</v>
@@ -2484,19 +2484,19 @@
         <v>3033771</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3003905</v>
+        <v>2995564</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3064151</v>
+        <v>3064592</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9160090862423022</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9069914211059499</v>
+        <v>0.9044729562062673</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9251820960425506</v>
+        <v>0.9253152641343163</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5851</v>
@@ -2505,19 +2505,19 @@
         <v>5984272</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5934128</v>
+        <v>5937829</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6027679</v>
+        <v>6026064</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9155798906537062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9079079305811087</v>
+        <v>0.9084742256457315</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9222210224429815</v>
+        <v>0.9219739008379306</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>260177</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>230671</v>
+        <v>232602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>293396</v>
+        <v>292331</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08069743686062815</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07154587573362242</v>
+        <v>0.07214477048310844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09100093957894746</v>
+        <v>0.09067049714451446</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>343</v>
@@ -2555,19 +2555,19 @@
         <v>355340</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>320556</v>
+        <v>319494</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>394909</v>
+        <v>389035</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1072903964694996</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09678784388578207</v>
+        <v>0.09646725668314828</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1192379584377972</v>
+        <v>0.1174641576218941</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>589</v>
@@ -2576,19 +2576,19 @@
         <v>615517</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>570580</v>
+        <v>566884</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>670194</v>
+        <v>664984</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09417261675990497</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08729736645042656</v>
+        <v>0.0867319353963822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1025381251171864</v>
+        <v>0.101741022963974</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>115274</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>93411</v>
+        <v>93875</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>139288</v>
+        <v>137189</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0357537926683226</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.028972848984567</v>
+        <v>0.02911666254207747</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04320203351893589</v>
+        <v>0.04255110716757982</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -2626,19 +2626,19 @@
         <v>70658</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>55794</v>
+        <v>55068</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>89159</v>
+        <v>89155</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02133431907053859</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01684618324462999</v>
+        <v>0.01662701490851668</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02692034781750234</v>
+        <v>0.02691933990006339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -2647,19 +2647,19 @@
         <v>185932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>159622</v>
+        <v>160133</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>216140</v>
+        <v>215701</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02844715949770734</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02442176996027749</v>
+        <v>0.02450003644265713</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03306896935100979</v>
+        <v>0.03300169854554767</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>65722</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50685</v>
+        <v>52399</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>83385</v>
+        <v>84350</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02038454712267837</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01572064166337549</v>
+        <v>0.01625229430836998</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02586311294122442</v>
+        <v>0.02616242309475378</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>51</v>
@@ -2697,19 +2697,19 @@
         <v>52567</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>39476</v>
+        <v>39068</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>68181</v>
+        <v>68176</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01587206089076619</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01191927363910929</v>
+        <v>0.0117959733972379</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02058650722308805</v>
+        <v>0.0205848060406945</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>117</v>
@@ -2718,19 +2718,19 @@
         <v>118289</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>99505</v>
+        <v>97557</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>142408</v>
+        <v>139551</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01809798087874134</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01522398858604083</v>
+        <v>0.01492600191992527</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02178810586831526</v>
+        <v>0.02135098688456841</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>58420</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44371</v>
+        <v>44639</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>75915</v>
+        <v>75493</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01811991016404092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01376216171690944</v>
+        <v>0.01384536914772967</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02354602569561382</v>
+        <v>0.02341515616876188</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>53</v>
@@ -2768,19 +2768,19 @@
         <v>51962</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39718</v>
+        <v>39529</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67760</v>
+        <v>68570</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01568922910052152</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01199231357356374</v>
+        <v>0.01193519840967127</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.020459250845415</v>
+        <v>0.02070378959384792</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -2789,19 +2789,19 @@
         <v>110382</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90551</v>
+        <v>91983</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>132804</v>
+        <v>133957</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01688823587541594</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01385410342516173</v>
+        <v>0.01407324538335784</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02031875686471462</v>
+        <v>0.02049508417178846</v>
       </c>
     </row>
     <row r="33">
@@ -2818,19 +2818,19 @@
         <v>2462938</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2412947</v>
+        <v>2406471</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2510580</v>
+        <v>2505222</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.7639144345123056</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7484091465799736</v>
+        <v>0.746400465603741</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7786912241562677</v>
+        <v>0.7770295342392668</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2527</v>
@@ -2839,19 +2839,19 @@
         <v>2589764</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2541493</v>
+        <v>2542072</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2636014</v>
+        <v>2638556</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7819466996057076</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.7673719588557719</v>
+        <v>0.7675469193068475</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.7959112861286982</v>
+        <v>0.7966788207423829</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>4941</v>
@@ -2860,19 +2860,19 @@
         <v>5052702</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4988270</v>
+        <v>4991840</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5118719</v>
+        <v>5126037</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.7730517407654983</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.7631938219708814</v>
+        <v>0.7637400669525658</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.783152238710151</v>
+        <v>0.7842719383184998</v>
       </c>
     </row>
     <row r="34">
@@ -3133,19 +3133,19 @@
         <v>939397</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>917068</v>
+        <v>918837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>959905</v>
+        <v>958209</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9024441248410799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8809939389855966</v>
+        <v>0.8826935065126633</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9221463468460563</v>
+        <v>0.9205169414209752</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>961</v>
@@ -3154,19 +3154,19 @@
         <v>1042953</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1023390</v>
+        <v>1023608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1058474</v>
+        <v>1058357</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9337705444332262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9162555850049039</v>
+        <v>0.9164514915293225</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9476668002972235</v>
+        <v>0.94756246336534</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1842</v>
@@ -3175,19 +3175,19 @@
         <v>1982350</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1953727</v>
+        <v>1954270</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2007601</v>
+        <v>2006278</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9186588386383376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9053945008745649</v>
+        <v>0.9056458267010358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9303604921766471</v>
+        <v>0.9297473809046661</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>105488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85647</v>
+        <v>86302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127902</v>
+        <v>127629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1013383493693923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08227800499691933</v>
+        <v>0.08290702780092793</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1228704754412004</v>
+        <v>0.1226089506318387</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -3225,19 +3225,19 @@
         <v>108775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90390</v>
+        <v>89415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>132095</v>
+        <v>131592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09738741309255716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08092733357998573</v>
+        <v>0.08005449989840409</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1182664767589536</v>
+        <v>0.1178164003324754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>197</v>
@@ -3246,19 +3246,19 @@
         <v>214262</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186150</v>
+        <v>186110</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>243890</v>
+        <v>248540</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09929332469711392</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08626538766133798</v>
+        <v>0.08624706973047011</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1130231824043259</v>
+        <v>0.1151783635939209</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>28989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20326</v>
+        <v>19574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42253</v>
+        <v>41945</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02784830963795332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01952675619261985</v>
+        <v>0.01880387859507565</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04059136659135371</v>
+        <v>0.04029549591083691</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -3296,19 +3296,19 @@
         <v>19475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12285</v>
+        <v>12804</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30215</v>
+        <v>31322</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01743623508058317</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01099896637263171</v>
+        <v>0.01146367443205555</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02705153669756402</v>
+        <v>0.02804345391622672</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -3317,19 +3317,19 @@
         <v>48464</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>35909</v>
+        <v>36210</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64956</v>
+        <v>64311</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02245896699421911</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0166407203261504</v>
+        <v>0.01678052349870967</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03010196821474248</v>
+        <v>0.02980288672610026</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>38873</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27525</v>
+        <v>27691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54794</v>
+        <v>56306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03734376005109034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02644209768726658</v>
+        <v>0.02660180086580922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05263844137235801</v>
+        <v>0.05409149225303497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3367,19 +3367,19 @@
         <v>22598</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13436</v>
+        <v>14892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35086</v>
+        <v>35369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02023251964643655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0120290654392708</v>
+        <v>0.0133327366734492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03141298848557989</v>
+        <v>0.03166644513413181</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -3388,19 +3388,19 @@
         <v>61471</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47088</v>
+        <v>46092</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79502</v>
+        <v>80083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02848689515909702</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0218216984450507</v>
+        <v>0.02135968553121413</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03684274906625017</v>
+        <v>0.03711184578284939</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>13006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6435</v>
+        <v>6725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23380</v>
+        <v>23263</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01249421511010569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006182267029528828</v>
+        <v>0.00646001722529301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02246050798814296</v>
+        <v>0.02234752056284031</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -3438,19 +3438,19 @@
         <v>4035</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10085</v>
+        <v>9156</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003612759891048159</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0008928978756720175</v>
+        <v>0.0009237124460317859</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.009029594514704984</v>
+        <v>0.008197255729163756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -3459,19 +3459,19 @@
         <v>17041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10246</v>
+        <v>9762</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28481</v>
+        <v>28887</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007897128805474747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004748380882808138</v>
+        <v>0.004523881663707019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01319841283323776</v>
+        <v>0.01338668137508337</v>
       </c>
     </row>
     <row r="9">
@@ -3488,19 +3488,19 @@
         <v>801895</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>773246</v>
+        <v>772575</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>829780</v>
+        <v>829966</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7703510875298482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7428291280375063</v>
+        <v>0.7421843408216574</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7971396111169617</v>
+        <v>0.797318397483747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>848</v>
@@ -3509,19 +3509,19 @@
         <v>922085</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>894292</v>
+        <v>895836</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>946287</v>
+        <v>947065</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8255558070248191</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8006729836294698</v>
+        <v>0.8020545597269565</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8472246476201516</v>
+        <v>0.8479208827996439</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1601</v>
@@ -3530,19 +3530,19 @@
         <v>1723980</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1683576</v>
+        <v>1682321</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1763252</v>
+        <v>1761657</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7989253305656931</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.780201057575031</v>
+        <v>0.7796198645223937</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8171246622458934</v>
+        <v>0.8163853927280084</v>
       </c>
     </row>
     <row r="10">
@@ -3563,19 +3563,19 @@
         <v>893732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>875646</v>
+        <v>873448</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>910861</v>
+        <v>910268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9164615812884352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8979152272338661</v>
+        <v>0.8956610409799394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9340257479814177</v>
+        <v>0.9334176349467175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>953</v>
@@ -3584,19 +3584,19 @@
         <v>1022142</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1003446</v>
+        <v>1003948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1037200</v>
+        <v>1036295</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.934092825709919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9170074374316706</v>
+        <v>0.9174660081150354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9478532625286056</v>
+        <v>0.9470261973487689</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1797</v>
@@ -3605,19 +3605,19 @@
         <v>1915875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1891564</v>
+        <v>1889953</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1940250</v>
+        <v>1937632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9257843973858679</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9140369339463839</v>
+        <v>0.9132584656179531</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9375631760686622</v>
+        <v>0.9362978115325029</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>117294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>97010</v>
+        <v>97305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138329</v>
+        <v>140294</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1202771338766277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09947758636755291</v>
+        <v>0.09977963585530476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1418473931632459</v>
+        <v>0.1438622889356446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>143</v>
@@ -3655,19 +3655,19 @@
         <v>156153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133344</v>
+        <v>133107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181357</v>
+        <v>180991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.142702008139156</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1218575398596624</v>
+        <v>0.1216411227214755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.165734509071112</v>
+        <v>0.1654004788489525</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>256</v>
@@ -3676,19 +3676,19 @@
         <v>273448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243947</v>
+        <v>243669</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>306532</v>
+        <v>305034</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1321346621236331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1178796877507031</v>
+        <v>0.1177449464101175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1481217090279821</v>
+        <v>0.1473976055334898</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>41695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30577</v>
+        <v>31149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55618</v>
+        <v>56041</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04275508603202136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03135508523899908</v>
+        <v>0.03194120952140523</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05703267546169873</v>
+        <v>0.057466015219264</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -3726,19 +3726,19 @@
         <v>27645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18199</v>
+        <v>18131</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39438</v>
+        <v>39273</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02526363900773271</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01663125231431245</v>
+        <v>0.01656897183694545</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03604036828054862</v>
+        <v>0.0358898745021501</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -3747,19 +3747,19 @@
         <v>69340</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>54490</v>
+        <v>55174</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86055</v>
+        <v>88764</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0335061901522316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02633070904859127</v>
+        <v>0.02666102560429331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04158344099125344</v>
+        <v>0.04289250569023917</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>27907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17815</v>
+        <v>17781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39811</v>
+        <v>39971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02861695134001801</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01826849838872848</v>
+        <v>0.01823298143324296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04082368629676394</v>
+        <v>0.04098722786921723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3797,19 +3797,19 @@
         <v>20235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11966</v>
+        <v>12867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29180</v>
+        <v>31122</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01849217053813629</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01093486504602627</v>
+        <v>0.01175889932384942</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02666678022289154</v>
+        <v>0.02844114622165913</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -3818,19 +3818,19 @@
         <v>48142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34245</v>
+        <v>36014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62416</v>
+        <v>62998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.023263303736577</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01654777672073802</v>
+        <v>0.01740283835562865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03016050608832116</v>
+        <v>0.03044181913414051</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>10283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4744</v>
+        <v>4561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19583</v>
+        <v>20515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01054464253698264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004864891630072745</v>
+        <v>0.00467688477512635</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02008110076059193</v>
+        <v>0.02103724041706901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3868,19 +3868,19 @@
         <v>12353</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6919</v>
+        <v>6298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21464</v>
+        <v>19945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01128923736674562</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006322540707462274</v>
+        <v>0.005755505807203714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01961494587170304</v>
+        <v>0.0182266673262819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -3889,19 +3889,19 @@
         <v>22637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13770</v>
+        <v>14176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35390</v>
+        <v>34007</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01093835953727111</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006653939384289089</v>
+        <v>0.006850139684422889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01710098789209218</v>
+        <v>0.01643297180224862</v>
       </c>
     </row>
     <row r="15">
@@ -3918,19 +3918,19 @@
         <v>780235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>752523</v>
+        <v>750491</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>807225</v>
+        <v>805561</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8000773588438322</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7716607739499927</v>
+        <v>0.7695775823734768</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8277542412677628</v>
+        <v>0.8260481707966719</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>828</v>
@@ -3939,19 +3939,19 @@
         <v>893362</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>867678</v>
+        <v>865698</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>918779</v>
+        <v>919350</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8164060007436682</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7929347227695392</v>
+        <v>0.7911253457080535</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8396335723302667</v>
+        <v>0.8401549378306185</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1567</v>
@@ -3960,19 +3960,19 @@
         <v>1673597</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1635951</v>
+        <v>1637466</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1708392</v>
+        <v>1712841</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8087114020182046</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7905201342200247</v>
+        <v>0.791252415982439</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8255251979293582</v>
+        <v>0.8276749893807548</v>
       </c>
     </row>
     <row r="16">
@@ -3993,19 +3993,19 @@
         <v>824915</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>805935</v>
+        <v>806676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>839506</v>
+        <v>839938</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9319857554667664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.910542190958304</v>
+        <v>0.9113798883433468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9484714780025808</v>
+        <v>0.9489592007977589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>772</v>
@@ -4014,19 +4014,19 @@
         <v>823536</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>808593</v>
+        <v>808624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>836687</v>
+        <v>836956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9415762579717054</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9244921877864071</v>
+        <v>0.9245275540961038</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9566125782155404</v>
+        <v>0.9569205979280057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1547</v>
@@ -4035,19 +4035,19 @@
         <v>1648450</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1627448</v>
+        <v>1625891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1668342</v>
+        <v>1669827</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.936752448683892</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9248179577144719</v>
+        <v>0.9239330783855307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9480564245585581</v>
+        <v>0.9489000438842248</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>116165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94963</v>
+        <v>95404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139125</v>
+        <v>137324</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1312429016366933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1072883922130004</v>
+        <v>0.1077871425230928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1571824664052955</v>
+        <v>0.1551484589654957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>95</v>
@@ -4085,19 +4085,19 @@
         <v>102528</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84355</v>
+        <v>84367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124541</v>
+        <v>123087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1172233467846291</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09644639811129489</v>
+        <v>0.0964595026957429</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1423917922073978</v>
+        <v>0.1407297627512444</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -4106,19 +4106,19 @@
         <v>218693</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>191375</v>
+        <v>188432</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246897</v>
+        <v>248324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1242748708180747</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1087511003632135</v>
+        <v>0.1070789168456029</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1403024017301945</v>
+        <v>0.1411135080749072</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>43053</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31103</v>
+        <v>32097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56184</v>
+        <v>57174</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04864158284771736</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03513961784281838</v>
+        <v>0.03626284992240382</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06347660569713509</v>
+        <v>0.06459503128847523</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -4156,19 +4156,19 @@
         <v>19085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10932</v>
+        <v>11272</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30029</v>
+        <v>30883</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02182074524714083</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01249887188416055</v>
+        <v>0.01288768961833616</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03433297632462489</v>
+        <v>0.0353095593624878</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -4177,19 +4177,19 @@
         <v>62139</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47663</v>
+        <v>47804</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>79438</v>
+        <v>80797</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03531102956310535</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02708485117797973</v>
+        <v>0.02716510898155158</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04514164613316119</v>
+        <v>0.04591373366637115</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>8294</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3461</v>
+        <v>3228</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17185</v>
+        <v>17868</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009370290493954292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003910529607248152</v>
+        <v>0.003646851900356893</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01941580265919061</v>
+        <v>0.02018731719407592</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4227,19 +4227,19 @@
         <v>10271</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5039</v>
+        <v>5002</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19428</v>
+        <v>18219</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01174287236245823</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00576135223789812</v>
+        <v>0.005718746312440397</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02221289882737927</v>
+        <v>0.02083043974887425</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4248,19 +4248,19 @@
         <v>18565</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10959</v>
+        <v>11005</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29037</v>
+        <v>29672</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01054951649320184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006227344188266084</v>
+        <v>0.006253659549447536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0165003931740388</v>
+        <v>0.01686169026038283</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>7863</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3883</v>
+        <v>3780</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15527</v>
+        <v>15144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008883826395360402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004386629067413999</v>
+        <v>0.004271152285242756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01754184987694246</v>
+        <v>0.01710929122151691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4298,19 +4298,19 @@
         <v>13780</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6700</v>
+        <v>7328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23233</v>
+        <v>23441</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01575561193839036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007660462880579142</v>
+        <v>0.008378410842475918</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02656298377732475</v>
+        <v>0.02680077127389981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -4319,19 +4319,19 @@
         <v>21644</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13556</v>
+        <v>13499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33526</v>
+        <v>32595</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01229925676729697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007703553565012002</v>
+        <v>0.007670705697662681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01905134523201658</v>
+        <v>0.01852264487702232</v>
       </c>
     </row>
     <row r="21">
@@ -4348,19 +4348,19 @@
         <v>732897</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>709406</v>
+        <v>707728</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>754148</v>
+        <v>754130</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8280242373521138</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.801484238201389</v>
+        <v>0.7995884459535425</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8520334092508002</v>
+        <v>0.8520130846536804</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>677</v>
@@ -4369,19 +4369,19 @@
         <v>724113</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>699129</v>
+        <v>701563</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>745603</v>
+        <v>748939</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8279026140397397</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7993383623701836</v>
+        <v>0.8021210753354368</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8524735683130186</v>
+        <v>0.8562870007497463</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1362</v>
@@ -4390,19 +4390,19 @@
         <v>1457009</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1423865</v>
+        <v>1424249</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1489525</v>
+        <v>1490535</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8279637878586864</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8091288832779678</v>
+        <v>0.8093475830171278</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8464410950166247</v>
+        <v>0.8470154285512691</v>
       </c>
     </row>
     <row r="22">
@@ -4423,19 +4423,19 @@
         <v>454249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>437326</v>
+        <v>436721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>467228</v>
+        <v>466645</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9049109572706</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8711978159393834</v>
+        <v>0.869993204478652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9307662683006586</v>
+        <v>0.929605715122419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>383</v>
@@ -4444,19 +4444,19 @@
         <v>422476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>410261</v>
+        <v>410257</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>431686</v>
+        <v>431402</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9372219791008514</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9101238272639219</v>
+        <v>0.9101143743680702</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9576525333020104</v>
+        <v>0.9570235687264168</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>801</v>
@@ -4465,19 +4465,19 @@
         <v>876724</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>856885</v>
+        <v>858041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>894697</v>
+        <v>894253</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9201981655311949</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8993747014059972</v>
+        <v>0.9005887520693244</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9390618280772109</v>
+        <v>0.9385959618846109</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>70624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54714</v>
+        <v>54060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>90279</v>
+        <v>88975</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1406894853689911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.108996831540451</v>
+        <v>0.1076938468320283</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.179844217219001</v>
+        <v>0.1772471610486534</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>69</v>
@@ -4515,19 +4515,19 @@
         <v>76858</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>60576</v>
+        <v>61687</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>93876</v>
+        <v>95948</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1705022556686896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1343810969896083</v>
+        <v>0.1368469311467024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2082539914559165</v>
+        <v>0.2128511299686471</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -4536,19 +4536,19 @@
         <v>147482</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>122323</v>
+        <v>123790</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>172028</v>
+        <v>171007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1547947040399174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1283889591447646</v>
+        <v>0.1299287811935694</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1805580980131481</v>
+        <v>0.1794867982642208</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>29484</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20561</v>
+        <v>20371</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42195</v>
+        <v>41580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05873541004558639</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04095907593040159</v>
+        <v>0.0405816680691741</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08405737105140022</v>
+        <v>0.08283091175274496</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -4586,19 +4586,19 @@
         <v>16478</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9405</v>
+        <v>9037</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26594</v>
+        <v>26858</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03655588953609991</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02086357339891433</v>
+        <v>0.02004741832727434</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0589966736255786</v>
+        <v>0.05958287165913585</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -4607,19 +4607,19 @@
         <v>45963</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33603</v>
+        <v>34462</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62609</v>
+        <v>62636</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04824168592476003</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03526920002454883</v>
+        <v>0.03617093644727286</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06571356686741962</v>
+        <v>0.06574143969893557</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>13861</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7177</v>
+        <v>6611</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26408</v>
+        <v>24867</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02761325245881853</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01429680286651248</v>
+        <v>0.01316990378568575</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05260653390028614</v>
+        <v>0.04953775582087486</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4657,19 +4657,19 @@
         <v>8265</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4021</v>
+        <v>3209</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15855</v>
+        <v>14654</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01833414442119957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008921232421045013</v>
+        <v>0.007118748223178543</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03517276550447614</v>
+        <v>0.03250858156341744</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -4678,19 +4678,19 @@
         <v>22126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13206</v>
+        <v>12999</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35442</v>
+        <v>35487</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0232230583699757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0138612516577608</v>
+        <v>0.01364389830185304</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03719935113970824</v>
+        <v>0.03724681898416517</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>4794</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1844</v>
+        <v>1890</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11121</v>
+        <v>10369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009549889726035829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003672908568403784</v>
+        <v>0.003765098316138009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02215406138853947</v>
+        <v>0.02065657521004046</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4728,19 +4728,19 @@
         <v>10227</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5045</v>
+        <v>5026</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19617</v>
+        <v>19367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02268751355002265</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01119169046377271</v>
+        <v>0.01115039967927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04351919089771592</v>
+        <v>0.042962845965522</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -4749,19 +4749,19 @@
         <v>15021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8071</v>
+        <v>8762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24635</v>
+        <v>24290</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0157656507905344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008470701174550288</v>
+        <v>0.009196595122503265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02585649699868365</v>
+        <v>0.0254948553695975</v>
       </c>
     </row>
     <row r="27">
@@ -4778,19 +4778,19 @@
         <v>409836</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>390616</v>
+        <v>389379</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>426888</v>
+        <v>427359</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8164365295388392</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7781472872990782</v>
+        <v>0.7756829093476248</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8504049742896694</v>
+        <v>0.8513429093468667</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>356</v>
@@ -4799,19 +4799,19 @@
         <v>392080</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>376628</v>
+        <v>375922</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>405842</v>
+        <v>405086</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8697904844252996</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8355118416348581</v>
+        <v>0.8339452513612834</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9003208336587637</v>
+        <v>0.8986425411971147</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>732</v>
@@ -4820,19 +4820,19 @@
         <v>801915</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>772630</v>
+        <v>778484</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>823192</v>
+        <v>825702</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8416797120095361</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8109418811076667</v>
+        <v>0.8170864402377916</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8640112513129555</v>
+        <v>0.8666453783798512</v>
       </c>
     </row>
     <row r="28">
@@ -4853,19 +4853,19 @@
         <v>3112293</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3077144</v>
+        <v>3077066</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3145851</v>
+        <v>3144334</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9145078691476293</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9041797914164598</v>
+        <v>0.9041570483739428</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9243686608106696</v>
+        <v>0.9239228254885072</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3069</v>
@@ -4874,19 +4874,19 @@
         <v>3311107</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3280399</v>
+        <v>3279091</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3339364</v>
+        <v>3337325</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.936240609853249</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9275579104255066</v>
+        <v>0.9271879009522556</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9442306307630713</v>
+        <v>0.9436541054791507</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5987</v>
@@ -4895,19 +4895,19 @@
         <v>6423400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6378209</v>
+        <v>6376387</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6465948</v>
+        <v>6467288</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9255830460566649</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9190711591662164</v>
+        <v>0.9188086478544146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9317140501412756</v>
+        <v>0.9319070988197816</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>409571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>373165</v>
+        <v>369640</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>450750</v>
+        <v>450294</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1203471612367134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1096497417274732</v>
+        <v>0.1086140747159388</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1324473341886049</v>
+        <v>0.1323131552769921</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>407</v>
@@ -4945,19 +4945,19 @@
         <v>444314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>407310</v>
+        <v>407506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>488541</v>
+        <v>488956</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1256330769412778</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1151700913336591</v>
+        <v>0.1152254959316618</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1381387851978714</v>
+        <v>0.138256100659457</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>787</v>
@@ -4966,19 +4966,19 @@
         <v>853884</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>796472</v>
+        <v>797907</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>911459</v>
+        <v>912099</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1230409057739205</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1147680053930989</v>
+        <v>0.1149748570641033</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1313371254942861</v>
+        <v>0.1314293577068837</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>143221</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>120714</v>
+        <v>120944</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>168270</v>
+        <v>168379</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04208363573526425</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03547019748761369</v>
+        <v>0.03553783591781735</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04944407705751324</v>
+        <v>0.04947607026888898</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>74</v>
@@ -5016,19 +5016,19 @@
         <v>82684</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64360</v>
+        <v>64024</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>104028</v>
+        <v>102714</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02337944131719693</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01819834704509108</v>
+        <v>0.01810318760641852</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02941470941210004</v>
+        <v>0.02904324470989917</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>215</v>
@@ -5037,19 +5037,19 @@
         <v>225905</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>195815</v>
+        <v>197609</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>258423</v>
+        <v>257403</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03255183001747338</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02821605876779185</v>
+        <v>0.02847461365334663</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0372375592745956</v>
+        <v>0.03709062860949716</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>88935</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>71051</v>
+        <v>71445</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109469</v>
+        <v>114072</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02613249763895122</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02087729570395148</v>
+        <v>0.0209931466746426</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03216606071708633</v>
+        <v>0.03351869171254256</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>56</v>
@@ -5087,19 +5087,19 @@
         <v>61369</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>47431</v>
+        <v>46870</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>78896</v>
+        <v>78940</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01735249789602991</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01341153803195761</v>
+        <v>0.01325296252347484</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02230847453001334</v>
+        <v>0.02232084682481897</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>133</v>
@@ -5108,19 +5108,19 @@
         <v>150304</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>124645</v>
+        <v>126319</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>178397</v>
+        <v>178796</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02165814018301396</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.017960820340661</v>
+        <v>0.01820196125111959</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02570614473879746</v>
+        <v>0.02576367139269141</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>35946</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25394</v>
+        <v>24922</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>49847</v>
+        <v>52291</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01056228484345313</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007461725154925532</v>
+        <v>0.007323020077104928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0146468781552251</v>
+        <v>0.01536508333709447</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -5158,19 +5158,19 @@
         <v>40396</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29166</v>
+        <v>29072</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53832</v>
+        <v>55921</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01142225774366457</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008246970016728767</v>
+        <v>0.008220199387188515</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01522154101277467</v>
+        <v>0.01581207840403821</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>70</v>
@@ -5179,19 +5179,19 @@
         <v>76342</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>60439</v>
+        <v>58937</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97568</v>
+        <v>95614</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01100053384921959</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.008709049742002459</v>
+        <v>0.008492542149563539</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01405914692702845</v>
+        <v>0.01377760310781439</v>
       </c>
     </row>
     <row r="33">
@@ -5208,19 +5208,19 @@
         <v>2724862</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2674953</v>
+        <v>2673703</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2772969</v>
+        <v>2773970</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8006664229036169</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7860010669414202</v>
+        <v>0.7856338886566381</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8148018218421649</v>
+        <v>0.8150959306598486</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2709</v>
@@ -5229,19 +5229,19 @@
         <v>2931639</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2887672</v>
+        <v>2886415</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2979202</v>
+        <v>2975611</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8289432934780142</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8165112364679603</v>
+        <v>0.816155893064875</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8423921179669388</v>
+        <v>0.8413765785531172</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5262</v>
@@ -5250,19 +5250,19 @@
         <v>5656502</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5583667</v>
+        <v>5586632</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5719953</v>
+        <v>5724091</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8150765402600704</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8045813131777331</v>
+        <v>0.8050085889060653</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.8242194223040666</v>
+        <v>0.8248158005614951</v>
       </c>
     </row>
     <row r="34">
@@ -5523,19 +5523,19 @@
         <v>1014413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>992111</v>
+        <v>993690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1034441</v>
+        <v>1033784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9001688294982294</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8803787684021032</v>
+        <v>0.8817800559610688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9179414147625597</v>
+        <v>0.9173580148684167</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1112</v>
@@ -5544,19 +5544,19 @@
         <v>1182873</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1163001</v>
+        <v>1164699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1197310</v>
+        <v>1199385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9391153535876756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9233383172727145</v>
+        <v>0.9246863573035313</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9505775401637915</v>
+        <v>0.9522242562425544</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2073</v>
@@ -5565,19 +5565,19 @@
         <v>2197285</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2169729</v>
+        <v>2170058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2224751</v>
+        <v>2226139</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9207244716467617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9091775911984099</v>
+        <v>0.9093157810276156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9322336874316854</v>
+        <v>0.9328149936749227</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>128896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107979</v>
+        <v>107254</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>152285</v>
+        <v>150812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1143798226317233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09581810427160882</v>
+        <v>0.09517528116103184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1351347195957667</v>
+        <v>0.1338270561821916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>158</v>
@@ -5615,19 +5615,19 @@
         <v>163547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>139795</v>
+        <v>140394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188090</v>
+        <v>188110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1298447795166366</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.110987412938303</v>
+        <v>0.1114623503449566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.149330084759201</v>
+        <v>0.1493457009185995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>280</v>
@@ -5636,19 +5636,19 @@
         <v>292444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>260451</v>
+        <v>260664</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>327135</v>
+        <v>326758</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1225420945417575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.109136229108522</v>
+        <v>0.1092254935783475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1370788639106872</v>
+        <v>0.1369207735446809</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>52269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38674</v>
+        <v>39063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66933</v>
+        <v>68861</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04638266956252625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03431814261449125</v>
+        <v>0.03466329473919447</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05939507656651605</v>
+        <v>0.06110554443274346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>46</v>
@@ -5686,19 +5686,19 @@
         <v>49569</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35616</v>
+        <v>37139</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64930</v>
+        <v>65800</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0393541338136638</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02827644550403881</v>
+        <v>0.02948599758413685</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05154992821105948</v>
+        <v>0.05224005695154667</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>96</v>
@@ -5707,19 +5707,19 @@
         <v>101838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83912</v>
+        <v>83236</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122855</v>
+        <v>122710</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04267306853754201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03516138391899785</v>
+        <v>0.03487807101438248</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.051479659633381</v>
+        <v>0.05141885153030243</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>25500</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16331</v>
+        <v>15527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39208</v>
+        <v>38208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02262830104760453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01449200949201033</v>
+        <v>0.01377811645280486</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03479250373040956</v>
+        <v>0.03390487576319898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -5757,19 +5757,19 @@
         <v>12144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6857</v>
+        <v>6639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21892</v>
+        <v>21248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009641558470598702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005443568859393767</v>
+        <v>0.005270506169795196</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01738081990404405</v>
+        <v>0.01686948733993893</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -5778,19 +5778,19 @@
         <v>37644</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26281</v>
+        <v>25387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52188</v>
+        <v>51888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01577400944317407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01101229449884499</v>
+        <v>0.01063785877973266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02186840177533275</v>
+        <v>0.02174261593196013</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>37882</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26621</v>
+        <v>26900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51760</v>
+        <v>51814</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0336154299549203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02362298264725778</v>
+        <v>0.02387072602727464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04593099663651844</v>
+        <v>0.04597889009784546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -5828,19 +5828,19 @@
         <v>45037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32463</v>
+        <v>32216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59246</v>
+        <v>60530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03575648383834615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02577346091319584</v>
+        <v>0.02557686824101128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04703739300175678</v>
+        <v>0.04805627054007248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -5849,19 +5849,19 @@
         <v>82919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65925</v>
+        <v>65679</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102655</v>
+        <v>102707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0347454598735685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02762427062569181</v>
+        <v>0.02752116638902092</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.043015443390247</v>
+        <v>0.04303712055870555</v>
       </c>
     </row>
     <row r="9">
@@ -5878,19 +5878,19 @@
         <v>907359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>877233</v>
+        <v>877574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>933624</v>
+        <v>930578</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8051718936908715</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7784381714119938</v>
+        <v>0.7787404973937713</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8284783925194947</v>
+        <v>0.8257751600264739</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1017</v>
@@ -5899,19 +5899,19 @@
         <v>1083041</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1058870</v>
+        <v>1056170</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1110641</v>
+        <v>1107093</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8598561542646634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8406661160061204</v>
+        <v>0.8385219226014238</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8817681630630247</v>
+        <v>0.878951659752001</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1878</v>
@@ -5920,19 +5920,19 @@
         <v>1990400</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1951349</v>
+        <v>1950326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2021860</v>
+        <v>2026138</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8340337784878401</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8176703080023159</v>
+        <v>0.8172417661266754</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8472164094082361</v>
+        <v>0.8490091715350467</v>
       </c>
     </row>
     <row r="10">
@@ -5953,19 +5953,19 @@
         <v>827584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>809640</v>
+        <v>811583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>844384</v>
+        <v>844561</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9126115273880286</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8928244919896897</v>
+        <v>0.8949672002561085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9311380259775395</v>
+        <v>0.9313328419287562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>877</v>
@@ -5974,19 +5974,19 @@
         <v>928908</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>910599</v>
+        <v>911031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>943996</v>
+        <v>944362</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9248986385939257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9066687601477784</v>
+        <v>0.9070985674005182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9399210217538362</v>
+        <v>0.9402856647187033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1679</v>
@@ -5995,19 +5995,19 @@
         <v>1756492</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1730071</v>
+        <v>1730720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1777391</v>
+        <v>1779828</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9190685195855338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9052442220305363</v>
+        <v>0.9055836911723399</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9300037364090412</v>
+        <v>0.9312790191165597</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>118174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98783</v>
+        <v>99378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137464</v>
+        <v>137829</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1303156685162435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1089322839513206</v>
+        <v>0.109588338285133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1515877509871404</v>
+        <v>0.1519898413239502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -6045,19 +6045,19 @@
         <v>132122</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112601</v>
+        <v>110767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155163</v>
+        <v>153057</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.131552045960511</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1121153177138863</v>
+        <v>0.110289367980977</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1544931559707705</v>
+        <v>0.1523965116528407</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -6066,19 +6066,19 @@
         <v>250296</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>223662</v>
+        <v>222074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>280269</v>
+        <v>282245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1309653964610004</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1170291226612331</v>
+        <v>0.1161980556211826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1466482317840861</v>
+        <v>0.1476821848589091</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>59037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45351</v>
+        <v>44461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75257</v>
+        <v>74864</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06510256441008892</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05001022529260932</v>
+        <v>0.04902850308246567</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08298887355678564</v>
+        <v>0.08255625448682652</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -6116,19 +6116,19 @@
         <v>54081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39869</v>
+        <v>40020</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70464</v>
+        <v>68720</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0538471800635158</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03969644879077845</v>
+        <v>0.0398470920450955</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07015978779472702</v>
+        <v>0.06842360149010263</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -6137,19 +6137,19 @@
         <v>113118</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>93695</v>
+        <v>92757</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135025</v>
+        <v>135882</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05918775435523525</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04902517522375741</v>
+        <v>0.0485343528852865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07065064251740541</v>
+        <v>0.07109884849961248</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>17612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10875</v>
+        <v>10201</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28572</v>
+        <v>27475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01942196063774389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01199239910481308</v>
+        <v>0.01124938221625239</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0315072470909136</v>
+        <v>0.03029828880836443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -6187,19 +6187,19 @@
         <v>9624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4362</v>
+        <v>4770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17125</v>
+        <v>19430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009582017098166676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004342962348747375</v>
+        <v>0.004749674204415034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01705111667781107</v>
+        <v>0.01934619780088576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -6208,19 +6208,19 @@
         <v>27236</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17746</v>
+        <v>18274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38202</v>
+        <v>40199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01425097800445834</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009285640351384794</v>
+        <v>0.009561803162452271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01998874167863279</v>
+        <v>0.02103375278010774</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>21849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14423</v>
+        <v>13846</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32562</v>
+        <v>33478</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02409332663602994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01590497469657983</v>
+        <v>0.01526881684939169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03590714947127459</v>
+        <v>0.03691730009395049</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -6258,19 +6258,19 @@
         <v>33145</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23807</v>
+        <v>23110</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46773</v>
+        <v>47123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03300242912657531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02370379131162749</v>
+        <v>0.02301006143629733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.046571417020912</v>
+        <v>0.04691922554556396</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -6279,19 +6279,19 @@
         <v>54994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41527</v>
+        <v>41173</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70895</v>
+        <v>72357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02877514356632816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02172874072165308</v>
+        <v>0.02154349435606967</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03709498391958388</v>
+        <v>0.03786010553625374</v>
       </c>
     </row>
     <row r="15">
@@ -6308,19 +6308,19 @@
         <v>782107</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>759656</v>
+        <v>757794</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>802288</v>
+        <v>800326</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8624621892947533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8377053511516256</v>
+        <v>0.8356513487303665</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8847175689133571</v>
+        <v>0.8825530710741614</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>836</v>
@@ -6329,19 +6329,19 @@
         <v>886493</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>864399</v>
+        <v>864366</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>906952</v>
+        <v>904878</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8826664895489608</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8606680976939031</v>
+        <v>0.8606353812638041</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9030370626305273</v>
+        <v>0.9009725839193807</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1595</v>
@@ -6350,19 +6350,19 @@
         <v>1668599</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1638763</v>
+        <v>1640123</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1697007</v>
+        <v>1695793</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8730797386040537</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.857468249275565</v>
+        <v>0.8581794589212242</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8879437882303193</v>
+        <v>0.8873083359770662</v>
       </c>
     </row>
     <row r="16">
@@ -6383,19 +6383,19 @@
         <v>756444</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>740223</v>
+        <v>738506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>771687</v>
+        <v>770913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9192786746264888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8995654323881629</v>
+        <v>0.8974795081046478</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9378031459488357</v>
+        <v>0.9368620796436191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>684</v>
@@ -6404,19 +6404,19 @@
         <v>727142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>713968</v>
+        <v>712711</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>738919</v>
+        <v>738850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9430428900538506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9259582539279083</v>
+        <v>0.9243274707066043</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9583168457946982</v>
+        <v>0.9582279330704984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1408</v>
@@ -6425,19 +6425,19 @@
         <v>1483586</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1460173</v>
+        <v>1462711</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1504155</v>
+        <v>1503299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9307745711711326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9160857754787448</v>
+        <v>0.9176782500097581</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9436790115944249</v>
+        <v>0.9431423569599554</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>100905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82706</v>
+        <v>82708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119652</v>
+        <v>120908</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1226263857124956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1005098578179779</v>
+        <v>0.1005119963643107</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1454089439899026</v>
+        <v>0.1469348673770642</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>100</v>
@@ -6475,19 +6475,19 @@
         <v>106095</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86022</v>
+        <v>87381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126424</v>
+        <v>127048</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1375960560364535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.111563749028978</v>
+        <v>0.1133255073057988</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1639614719144735</v>
+        <v>0.1647707148909222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>195</v>
@@ -6496,19 +6496,19 @@
         <v>207000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>179882</v>
+        <v>180879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>232276</v>
+        <v>234102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1298679368538602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1128546867884676</v>
+        <v>0.1134798941408024</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1457256578867097</v>
+        <v>0.1468713410990812</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>83563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>66986</v>
+        <v>66855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>100919</v>
+        <v>102154</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1015507680259991</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08140538104572534</v>
+        <v>0.08124657460907092</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1226426890173216</v>
+        <v>0.1241443132430985</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>71</v>
@@ -6546,19 +6546,19 @@
         <v>74782</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60206</v>
+        <v>58742</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93249</v>
+        <v>93626</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09698574652207691</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07808255165490167</v>
+        <v>0.07618302236221731</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1209362595876149</v>
+        <v>0.1214258453865082</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>151</v>
@@ -6567,19 +6567,19 @@
         <v>158345</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134819</v>
+        <v>134523</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>185270</v>
+        <v>181631</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09934244706991401</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08458321922757463</v>
+        <v>0.08439730480416102</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.116235102506918</v>
+        <v>0.1139519862736005</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>11759</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6029</v>
+        <v>6030</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21278</v>
+        <v>21198</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0142900491487737</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007326610506782524</v>
+        <v>0.007328457661411464</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02585887509717013</v>
+        <v>0.02576119331625815</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -6617,19 +6617,19 @@
         <v>7847</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3755</v>
+        <v>3698</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14452</v>
+        <v>14789</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01017638645835031</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004869544098898401</v>
+        <v>0.004796137709865682</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0187435331719225</v>
+        <v>0.01918020719739835</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6638,19 +6638,19 @@
         <v>19605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12636</v>
+        <v>12230</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30085</v>
+        <v>29791</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01230007220830972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007927413790251038</v>
+        <v>0.007673003262477973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01887467530688166</v>
+        <v>0.01869030533096272</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>38555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27148</v>
+        <v>26507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52233</v>
+        <v>52002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04685486318692786</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03299138358286059</v>
+        <v>0.03221294978735781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06347707543200209</v>
+        <v>0.06319632908094205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -6688,19 +6688,19 @@
         <v>28042</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18379</v>
+        <v>17926</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40582</v>
+        <v>39124</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03636828758743701</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02383560326598618</v>
+        <v>0.02324877830406361</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05263135337221368</v>
+        <v>0.05074110571057431</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -6709,19 +6709,19 @@
         <v>66597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51594</v>
+        <v>52440</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85578</v>
+        <v>83863</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04178200106918546</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03236919467299246</v>
+        <v>0.03289974192879429</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05369014494744432</v>
+        <v>0.05261388853409912</v>
       </c>
     </row>
     <row r="21">
@@ -6738,19 +6738,19 @@
         <v>720970</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>700371</v>
+        <v>702325</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>739392</v>
+        <v>741124</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8761677218080096</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8511352056164465</v>
+        <v>0.8535093507743046</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8985562481476063</v>
+        <v>0.9006607839101234</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>650</v>
@@ -6759,19 +6759,19 @@
         <v>691172</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>674022</v>
+        <v>674863</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>707778</v>
+        <v>707850</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8963929226378738</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.8741507227211477</v>
+        <v>0.8752422288025347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.9179301728864101</v>
+        <v>0.9180233509908418</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1342</v>
@@ -6780,19 +6780,19 @@
         <v>1412141</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1383818</v>
+        <v>1384883</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1433832</v>
+        <v>1437696</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8859516263953691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.8681820879895898</v>
+        <v>0.8688500032667197</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8995596825561711</v>
+        <v>0.901983958728853</v>
       </c>
     </row>
     <row r="22">
@@ -6813,19 +6813,19 @@
         <v>456889</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>439861</v>
+        <v>442278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>468601</v>
+        <v>469385</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9016942310156468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.868086984028503</v>
+        <v>0.8728573737123312</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9248083994112184</v>
+        <v>0.9263540435881813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>425</v>
@@ -6834,19 +6834,19 @@
         <v>458758</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>447503</v>
+        <v>446127</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>467895</v>
+        <v>467707</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9389517704902547</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9159173136149512</v>
+        <v>0.9130992276930792</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9576528822992275</v>
+        <v>0.9572674430012329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>851</v>
@@ -6855,19 +6855,19 @@
         <v>915647</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>898015</v>
+        <v>895645</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>932791</v>
+        <v>931261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9199839337416992</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9022681459064418</v>
+        <v>0.8998872511256409</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9372085345498172</v>
+        <v>0.9356716819556435</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>88651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>71965</v>
+        <v>72522</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105986</v>
+        <v>108068</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1749573711295079</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1420257698877687</v>
+        <v>0.1431254710435522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2091680992780517</v>
+        <v>0.2132770674250867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>64</v>
@@ -6905,19 +6905,19 @@
         <v>67870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53308</v>
+        <v>53934</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>84916</v>
+        <v>84225</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1389109236617873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1091069056610401</v>
+        <v>0.1103887523177988</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1737995451957752</v>
+        <v>0.1723850739509317</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>143</v>
@@ -6926,19 +6926,19 @@
         <v>156521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>134030</v>
+        <v>135249</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>179338</v>
+        <v>181764</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1572621927089311</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1346652702580073</v>
+        <v>0.1358892066425874</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1801871715906715</v>
+        <v>0.1826245790255073</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>49248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36967</v>
+        <v>37364</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65752</v>
+        <v>64284</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09719269532655934</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07295643120730096</v>
+        <v>0.07373937776777191</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1297645200082863</v>
+        <v>0.1268676411773407</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -6976,19 +6976,19 @@
         <v>33403</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23438</v>
+        <v>23172</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45591</v>
+        <v>45445</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06836729629277566</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04797025616005819</v>
+        <v>0.04742577885415963</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0933117304240953</v>
+        <v>0.09301322437386671</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>77</v>
@@ -6997,19 +6997,19 @@
         <v>82651</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>67418</v>
+        <v>66980</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>101148</v>
+        <v>104530</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08304232504655076</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06773707956387801</v>
+        <v>0.0672971306686686</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1016273060920351</v>
+        <v>0.1050248820255241</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>9507</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4773</v>
+        <v>4328</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17927</v>
+        <v>17287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01876255079324923</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009419202488343988</v>
+        <v>0.008541135918639827</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03537955579312761</v>
+        <v>0.03411726381423139</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -7047,19 +7047,19 @@
         <v>5617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2702</v>
+        <v>1928</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12245</v>
+        <v>11262</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01149701215460149</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005530688769007265</v>
+        <v>0.00394675034499022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02506235746354866</v>
+        <v>0.02304978185363384</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -7068,19 +7068,19 @@
         <v>15124</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9037</v>
+        <v>8856</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25025</v>
+        <v>24132</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01519590243913346</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009079989197636775</v>
+        <v>0.008898003821341706</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02514333760810317</v>
+        <v>0.02424605880109339</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>36757</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25643</v>
+        <v>25482</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49900</v>
+        <v>49233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07254248493131062</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05060732209147046</v>
+        <v>0.05029059530262273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09848083511923471</v>
+        <v>0.09716339760668617</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -7118,19 +7118,19 @@
         <v>40224</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28534</v>
+        <v>27832</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54296</v>
+        <v>53301</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0823274038767336</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05840116757058362</v>
+        <v>0.0569652783308057</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1111285913084029</v>
+        <v>0.1090931523510601</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -7139,19 +7139,19 @@
         <v>76981</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>62352</v>
+        <v>60328</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>95902</v>
+        <v>96162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07734589549556088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06264742345659072</v>
+        <v>0.06061346045882979</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09635658779968292</v>
+        <v>0.09661781994005095</v>
       </c>
     </row>
     <row r="27">
@@ -7168,19 +7168,19 @@
         <v>428117</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>410638</v>
+        <v>408027</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>444251</v>
+        <v>445596</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8449107466249522</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.810413932226661</v>
+        <v>0.8052623684362312</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8767527170981608</v>
+        <v>0.8794062090007526</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>401</v>
@@ -7189,19 +7189,19 @@
         <v>432934</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>417313</v>
+        <v>418499</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>445546</v>
+        <v>447161</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.886096921588322</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8541249736330609</v>
+        <v>0.8565535280644373</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9119100480417868</v>
+        <v>0.9152172281508709</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>799</v>
@@ -7210,19 +7210,19 @@
         <v>861051</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>839115</v>
+        <v>837360</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>882134</v>
+        <v>881190</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8651290140448015</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.843088894170813</v>
+        <v>0.8413255910249203</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8863116910236405</v>
+        <v>0.8853631380335799</v>
       </c>
     </row>
     <row r="28">
@@ -7243,19 +7243,19 @@
         <v>3055330</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3020985</v>
+        <v>3017707</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3089443</v>
+        <v>3090008</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9084289018158077</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8982172435011797</v>
+        <v>0.8972427021441467</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9185717002887337</v>
+        <v>0.9187395049711208</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3098</v>
@@ -7264,19 +7264,19 @@
         <v>3297681</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3267013</v>
+        <v>3265278</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3324735</v>
+        <v>3323343</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9358998624662</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9271962483147849</v>
+        <v>0.9267037242142233</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.943578165282923</v>
+        <v>0.9431831249097101</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6011</v>
@@ -7285,19 +7285,19 @@
         <v>6353010</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6304863</v>
+        <v>6305656</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6394618</v>
+        <v>6396039</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9224839501335423</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9154927331578369</v>
+        <v>0.9156078331204764</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9285254932546422</v>
+        <v>0.9287318416545389</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>436627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>395936</v>
+        <v>397580</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>479316</v>
+        <v>474813</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1298204456413471</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1177220881364038</v>
+        <v>0.118210942989463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1425131264702891</v>
+        <v>0.141174141930645</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>449</v>
@@ -7335,19 +7335,19 @@
         <v>469634</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>427847</v>
+        <v>428291</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>509450</v>
+        <v>510699</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1332847696065661</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.121425455754371</v>
+        <v>0.1215513120376067</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1445845973126974</v>
+        <v>0.1449390759971421</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>857</v>
@@ -7356,19 +7356,19 @@
         <v>906261</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>849481</v>
+        <v>846476</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>962170</v>
+        <v>965342</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.131592907891179</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1233482349036928</v>
+        <v>0.1229118868746348</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1397111554815613</v>
+        <v>0.1401716872184956</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>244117</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>215556</v>
+        <v>217022</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>272916</v>
+        <v>277526</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07258222233268476</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06409047099797385</v>
+        <v>0.06452632735005302</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08114495302806782</v>
+        <v>0.08251558644006649</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>199</v>
@@ -7406,19 +7406,19 @@
         <v>211835</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>184485</v>
+        <v>185047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>242843</v>
+        <v>244904</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.0601197960244487</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05235776277676479</v>
+        <v>0.05251745886620867</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06892011565994276</v>
+        <v>0.0695051373284138</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>430</v>
@@ -7427,19 +7427,19 @@
         <v>455951</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>417340</v>
+        <v>412662</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>497289</v>
+        <v>497752</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06620603454123364</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06059949906209063</v>
+        <v>0.05992030057730542</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07220839826640207</v>
+        <v>0.07227570941717043</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>64378</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48346</v>
+        <v>50273</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>81867</v>
+        <v>85259</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01914136340028075</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01437442653138362</v>
+        <v>0.01494751919263433</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02434124732368253</v>
+        <v>0.02534965382764048</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -7477,19 +7477,19 @@
         <v>35232</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24756</v>
+        <v>25441</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49224</v>
+        <v>48484</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.00999890699733429</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007025812252688834</v>
+        <v>0.007220301967213277</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01397018329214671</v>
+        <v>0.01375990431214509</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>93</v>
@@ -7498,19 +7498,19 @@
         <v>99610</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>82065</v>
+        <v>80733</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>124386</v>
+        <v>122307</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01446378156681254</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01191624994798141</v>
+        <v>0.01172278080128394</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01806139034722577</v>
+        <v>0.01775956503816353</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>135043</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>112917</v>
+        <v>113826</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>161098</v>
+        <v>160825</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04015176669041125</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03357317770810994</v>
+        <v>0.03384340890423155</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04789866630822297</v>
+        <v>0.04781749993088125</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>136</v>
@@ -7548,19 +7548,19 @@
         <v>146449</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>122634</v>
+        <v>123077</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>173989</v>
+        <v>175083</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04156303441845694</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03480413023310391</v>
+        <v>0.03493000784745786</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04937899649088618</v>
+        <v>0.04968954190379723</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>262</v>
@@ -7569,19 +7569,19 @@
         <v>281492</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>248848</v>
+        <v>249440</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>316210</v>
+        <v>317284</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04087381774495485</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03613378926072075</v>
+        <v>0.03621967229727428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04591504843934231</v>
+        <v>0.04607092079490486</v>
       </c>
     </row>
     <row r="33">
@@ -7598,19 +7598,19 @@
         <v>2838553</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2794578</v>
+        <v>2793834</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2878791</v>
+        <v>2880760</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.8439754357372061</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.830900489128111</v>
+        <v>0.8306795426477787</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8559392496744662</v>
+        <v>0.8565247721274278</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2904</v>
@@ -7619,19 +7619,19 @@
         <v>3093640</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3050452</v>
+        <v>3049537</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3132892</v>
+        <v>3132541</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.8779919135214923</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.8657351502656639</v>
+        <v>0.8654754562080399</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8891318680858222</v>
+        <v>0.8890323543676301</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>5614</v>
@@ -7640,19 +7640,19 @@
         <v>5932192</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5865662</v>
+        <v>5870681</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5987034</v>
+        <v>5992173</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.8613793862193843</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.8517189400115677</v>
+        <v>0.8524476526134435</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.869342635252213</v>
+        <v>0.8700888662588084</v>
       </c>
     </row>
     <row r="34">
